--- a/back/public/dealer/files/salesorder/excel/salesorder_127.xlsx
+++ b/back/public/dealer/files/salesorder/excel/salesorder_127.xlsx
@@ -83,7 +83,7 @@
     <t>UNIT PRICE</t>
   </si>
   <si>
-    <t>PPN - 11%</t>
+    <t>PPN%</t>
   </si>
   <si>
     <t>UNIT SELL PRICE IDR</t>
@@ -119,7 +119,7 @@
     <t>SALES PERSONNEL</t>
   </si>
   <si>
-    <t>superadminnn</t>
+    <t>alfredo dagonza</t>
   </si>
 </sst>
 </file>
@@ -922,13 +922,13 @@
         <v>30000</v>
       </c>
       <c r="G16" s="10">
-        <v>3300</v>
+        <v>100</v>
       </c>
       <c r="H16" s="10">
-        <v>33300</v>
+        <v>60000</v>
       </c>
       <c r="I16" s="10">
-        <v>96570000</v>
+        <v>174000000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -951,13 +951,13 @@
         <v>30000</v>
       </c>
       <c r="G17" s="10">
-        <v>3300</v>
+        <v>100</v>
       </c>
       <c r="H17" s="10">
-        <v>33300</v>
+        <v>60000</v>
       </c>
       <c r="I17" s="10">
-        <v>382950000</v>
+        <v>690000000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -980,13 +980,13 @@
         <v>30000</v>
       </c>
       <c r="G18" s="10">
-        <v>3300</v>
+        <v>100</v>
       </c>
       <c r="H18" s="10">
-        <v>33300</v>
+        <v>60000</v>
       </c>
       <c r="I18" s="10">
-        <v>286513200</v>
+        <v>516240000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1009,13 +1009,13 @@
         <v>30000</v>
       </c>
       <c r="G19" s="10">
-        <v>3300</v>
+        <v>100</v>
       </c>
       <c r="H19" s="10">
-        <v>33300</v>
+        <v>60000</v>
       </c>
       <c r="I19" s="10">
-        <v>649350000</v>
+        <v>1170000000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="12">
-        <v>1415383200</v>
+        <v>2550240000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
